--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>编号</t>
   </si>
@@ -380,6 +380,29 @@
   </si>
   <si>
     <t>张文俊</t>
+  </si>
+  <si>
+    <t>OA流程看板报表优化</t>
+  </si>
+  <si>
+    <t>OA流程大于90天未审批的流程催批的时候，待审批的节点没有审批人邮箱不便于找到对应的人，在批量跟催的时候负责的同事更加费工夫，不利于工作效率。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下弹窗，【当前审批人】或【审批人】字段后，新增一列【当前审批人邮箱】或【审批人邮箱】
+各单位所建流程数量及审批效率（X=最长设计路径）-&gt;＞90天未完成审批工作流
+各单位所用流程审批效率-&gt;人均节点处理时长（小时）
+各单位所用流程审批效率-&gt;＞90天未完成审批工作流
+</t>
+  </si>
+  <si>
+    <t>帮助业处理OA长期不处理流程的业务单位对接人的工作效率，可以比较快速的锁定人员以及可以批量催批。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流程与数字化转型中心_流程与变革管理部
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王娇 </t>
   </si>
   <si>
     <t>待排期</t>
@@ -1827,10 +1850,10 @@
   <sheetPr/>
   <dimension ref="A1:P494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2390,7 +2413,9 @@
       <c r="G13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22">
+        <v>45222</v>
+      </c>
       <c r="I13" s="21" t="s">
         <v>32</v>
       </c>
@@ -2405,25 +2430,49 @@
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="115.5" spans="1:15">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="I14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="M14" s="29"/>
-      <c r="N14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="O14" s="18"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:15">
@@ -2485,13 +2534,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="21"/>
@@ -2504,7 +2553,7 @@
         <v>45140</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O18" s="18"/>
     </row>
@@ -6048,7 +6097,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -6056,13 +6105,13 @@
     </row>
     <row r="2" ht="30.75" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="2:4">
@@ -6073,7 +6122,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="2:4">
@@ -6092,18 +6141,18 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6111,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="4:4">

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -1851,9 +1851,9 @@
   <dimension ref="A1:P494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2369,7 +2369,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="22">
-        <v>45180</v>
+        <v>45195</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>32</v>

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -1850,10 +1850,10 @@
   <sheetPr/>
   <dimension ref="A1:P494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -1853,7 +1853,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -388,7 +388,7 @@
     <t>OA流程大于90天未审批的流程催批的时候，待审批的节点没有审批人邮箱不便于找到对应的人，在批量跟催的时候负责的同事更加费工夫，不利于工作效率。</t>
   </si>
   <si>
-    <t xml:space="preserve">以下弹窗，【当前审批人】或【审批人】字段后，新增一列【当前审批人邮箱】或【审批人邮箱】
+    <t xml:space="preserve">以下弹窗，【当前审批人】或【审批人】字段中用户名后补充用户邮箱
 各单位所建流程数量及审批效率（X=最长设计路径）-&gt;＞90天未完成审批工作流
 各单位所用流程审批效率-&gt;人均节点处理时长（小时）
 各单位所用流程审批效率-&gt;＞90天未完成审批工作流
@@ -1853,7 +1853,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="115.5" spans="1:15">
+    <row r="14" s="5" customFormat="1" ht="99" spans="1:15">
       <c r="A14" s="18">
         <v>13</v>
       </c>

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="需求单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>编号</t>
   </si>
@@ -310,7 +310,7 @@
 b. 流程运行效率（汇总）：流程使用次数，平均实际运行有效审核节点数，平均完成时间（小时），流程使用频率占比
 c. 流程运行效率（详细）：月份使用次数，最短完成时间，最长完成时间，平均完成时间，是否超过6个月未使用，＞90天未完成审批工作流（包括弹窗）
 d. 各单位所用流程审批效率：流程平均审批时长（小时）（包括弹窗），人均节点处理时长（小时），＞90天未完成审批工作流（包括弹窗）
-4.数据详情数据同步逻辑：每天还是同步当月的数据，在每周日同步一次近2年数据
+4.数据详情数据同步逻辑：每天还是同步当月的数据，在每周日早上十点同步一次近2年【提交人】【审批人】的离职状态数据
 </t>
   </si>
   <si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>李倢</t>
+  </si>
+  <si>
+    <t>数据同步的对象没有精细到人员，导致所有数据每周都刷新</t>
   </si>
   <si>
     <t>OA&amp;门户</t>
@@ -1851,9 +1854,9 @@
   <dimension ref="A1:P494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2309,21 +2312,23 @@
       <c r="N10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="18"/>
+      <c r="O10" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="167" customHeight="1" spans="1:15">
       <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="21" t="s">
@@ -2354,16 +2359,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>21</v>
@@ -2375,19 +2380,19 @@
         <v>32</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="29">
         <v>45132</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="18"/>
     </row>
@@ -2396,19 +2401,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>21</v>
@@ -2420,17 +2425,17 @@
         <v>32</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="18"/>
     </row>
@@ -2442,16 +2447,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>21</v>
@@ -2461,17 +2466,17 @@
         <v>32</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O14" s="18"/>
     </row>
@@ -2534,13 +2539,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="21"/>
@@ -2553,7 +2558,7 @@
         <v>45140</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O18" s="18"/>
     </row>
@@ -6097,7 +6102,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -6105,13 +6110,13 @@
     </row>
     <row r="2" ht="30.75" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="2:4">
@@ -6122,7 +6127,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="2:4">
@@ -6133,7 +6138,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="2:4">
@@ -6141,18 +6146,18 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6160,7 +6165,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="4:4">

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="需求单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>编号</t>
   </si>
@@ -408,7 +408,11 @@
     <t xml:space="preserve">王娇 </t>
   </si>
   <si>
-    <t>待排期</t>
+    <t xml:space="preserve">2023-09-08 16:02
+</t>
+  </si>
+  <si>
+    <t>开发中</t>
   </si>
   <si>
     <t>TCL实业全球官网运营管理规范</t>
@@ -455,10 +459,10 @@
     <t>需求设计中</t>
   </si>
   <si>
-    <t>开发中</t>
-  </si>
-  <si>
     <t>体验提升（界面设计和交互设计）</t>
+  </si>
+  <si>
+    <t>待排期</t>
   </si>
   <si>
     <t>内部需求</t>
@@ -1231,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1312,6 +1316,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1853,10 +1860,10 @@
   <sheetPr/>
   <dimension ref="A1:P494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2461,7 +2468,9 @@
       <c r="G14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="22">
+        <v>45260</v>
+      </c>
       <c r="I14" s="21" t="s">
         <v>32</v>
       </c>
@@ -2474,9 +2483,11 @@
       <c r="L14" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="N14" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14" s="18"/>
     </row>
@@ -2539,13 +2550,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="21"/>
@@ -2558,7 +2569,7 @@
         <v>45140</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="18"/>
     </row>
@@ -3805,2135 +3816,2135 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="18"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="18"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="18"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="18"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="18"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="18"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="18"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="18"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="18"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="18"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="18"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="18"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="18"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="18"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="18"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="31"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="18"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="18"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="31"/>
-      <c r="O108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="18"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="31"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="18"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="31"/>
-      <c r="L110" s="31"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="31"/>
-      <c r="O110" s="31"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="18"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="31"/>
-      <c r="L111" s="31"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="18"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="31"/>
-      <c r="O112" s="31"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="18"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="31"/>
-      <c r="O113" s="31"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="18"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="31"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="31"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="18"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="31"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="31"/>
-      <c r="O115" s="31"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="18"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="31"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="31"/>
-      <c r="O116" s="31"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="18"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="31"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="18"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="31"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="32"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="18"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="32"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="18"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="31"/>
-      <c r="M120" s="37"/>
-      <c r="N120" s="31"/>
-      <c r="O120" s="31"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="38"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="32"/>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="18"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="31"/>
-      <c r="O121" s="31"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="18"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="31"/>
-      <c r="O122" s="31"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="18"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="31"/>
-      <c r="O123" s="31"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="38"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="18"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="31"/>
-      <c r="M124" s="37"/>
-      <c r="N124" s="31"/>
-      <c r="O124" s="31"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="32"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="18"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="31"/>
-      <c r="O125" s="31"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="18"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="31"/>
-      <c r="O126" s="31"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="18"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="31"/>
-      <c r="O127" s="31"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="38"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="32"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="18"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="31"/>
-      <c r="O128" s="31"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="38"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="32"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="18"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="31"/>
-      <c r="O129" s="31"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="18"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="31"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="31"/>
-      <c r="O130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="38"/>
-      <c r="O131" s="39"/>
+      <c r="A131" s="39"/>
+      <c r="O131" s="40"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="38"/>
-      <c r="O132" s="39"/>
+      <c r="A132" s="39"/>
+      <c r="O132" s="40"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="38"/>
-      <c r="O133" s="39"/>
+      <c r="A133" s="39"/>
+      <c r="O133" s="40"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="38"/>
-      <c r="O134" s="39"/>
+      <c r="A134" s="39"/>
+      <c r="O134" s="40"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="38"/>
-      <c r="O135" s="39"/>
+      <c r="A135" s="39"/>
+      <c r="O135" s="40"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="38"/>
-      <c r="O136" s="39"/>
+      <c r="A136" s="39"/>
+      <c r="O136" s="40"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="38"/>
-      <c r="O137" s="39"/>
+      <c r="A137" s="39"/>
+      <c r="O137" s="40"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="38"/>
-      <c r="O138" s="39"/>
+      <c r="A138" s="39"/>
+      <c r="O138" s="40"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="38"/>
-      <c r="O139" s="39"/>
+      <c r="A139" s="39"/>
+      <c r="O139" s="40"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="38"/>
-      <c r="O140" s="39"/>
+      <c r="A140" s="39"/>
+      <c r="O140" s="40"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="38"/>
-      <c r="O141" s="39"/>
+      <c r="A141" s="39"/>
+      <c r="O141" s="40"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="38"/>
-      <c r="O142" s="39"/>
+      <c r="A142" s="39"/>
+      <c r="O142" s="40"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="38"/>
-      <c r="O143" s="39"/>
+      <c r="A143" s="39"/>
+      <c r="O143" s="40"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="38"/>
-      <c r="O144" s="39"/>
+      <c r="A144" s="39"/>
+      <c r="O144" s="40"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="38"/>
-      <c r="O145" s="39"/>
+      <c r="A145" s="39"/>
+      <c r="O145" s="40"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="38"/>
-      <c r="O146" s="39"/>
+      <c r="A146" s="39"/>
+      <c r="O146" s="40"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="38"/>
-      <c r="O147" s="39"/>
+      <c r="A147" s="39"/>
+      <c r="O147" s="40"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="38"/>
-      <c r="O148" s="39"/>
+      <c r="A148" s="39"/>
+      <c r="O148" s="40"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="38"/>
-      <c r="O149" s="39"/>
+      <c r="A149" s="39"/>
+      <c r="O149" s="40"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="38"/>
-      <c r="O150" s="39"/>
+      <c r="A150" s="39"/>
+      <c r="O150" s="40"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="38"/>
-      <c r="O151" s="39"/>
+      <c r="A151" s="39"/>
+      <c r="O151" s="40"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="38"/>
-      <c r="O152" s="39"/>
+      <c r="A152" s="39"/>
+      <c r="O152" s="40"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="38"/>
-      <c r="O153" s="39"/>
+      <c r="A153" s="39"/>
+      <c r="O153" s="40"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="38"/>
-      <c r="O154" s="39"/>
+      <c r="A154" s="39"/>
+      <c r="O154" s="40"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="38"/>
-      <c r="O155" s="39"/>
+      <c r="A155" s="39"/>
+      <c r="O155" s="40"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="38"/>
-      <c r="O156" s="39"/>
+      <c r="A156" s="39"/>
+      <c r="O156" s="40"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="38"/>
-      <c r="O157" s="39"/>
+      <c r="A157" s="39"/>
+      <c r="O157" s="40"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="38"/>
-      <c r="O158" s="39"/>
+      <c r="A158" s="39"/>
+      <c r="O158" s="40"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="38"/>
-      <c r="O159" s="39"/>
+      <c r="A159" s="39"/>
+      <c r="O159" s="40"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="38"/>
-      <c r="O160" s="39"/>
+      <c r="A160" s="39"/>
+      <c r="O160" s="40"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="38"/>
-      <c r="O161" s="39"/>
+      <c r="A161" s="39"/>
+      <c r="O161" s="40"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="38"/>
-      <c r="O162" s="39"/>
+      <c r="A162" s="39"/>
+      <c r="O162" s="40"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="38"/>
-      <c r="O163" s="39"/>
+      <c r="A163" s="39"/>
+      <c r="O163" s="40"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="38"/>
-      <c r="O164" s="39"/>
+      <c r="A164" s="39"/>
+      <c r="O164" s="40"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="38"/>
-      <c r="O165" s="39"/>
+      <c r="A165" s="39"/>
+      <c r="O165" s="40"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="38"/>
-      <c r="O166" s="39"/>
+      <c r="A166" s="39"/>
+      <c r="O166" s="40"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="38"/>
-      <c r="O167" s="39"/>
+      <c r="A167" s="39"/>
+      <c r="O167" s="40"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="38"/>
-      <c r="O168" s="39"/>
+      <c r="A168" s="39"/>
+      <c r="O168" s="40"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="38"/>
-      <c r="O169" s="39"/>
+      <c r="A169" s="39"/>
+      <c r="O169" s="40"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="38"/>
-      <c r="O170" s="39"/>
+      <c r="A170" s="39"/>
+      <c r="O170" s="40"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="38"/>
-      <c r="O171" s="39"/>
+      <c r="A171" s="39"/>
+      <c r="O171" s="40"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="38"/>
-      <c r="O172" s="39"/>
+      <c r="A172" s="39"/>
+      <c r="O172" s="40"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="38"/>
-      <c r="O173" s="39"/>
+      <c r="A173" s="39"/>
+      <c r="O173" s="40"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="38"/>
-      <c r="O174" s="39"/>
+      <c r="A174" s="39"/>
+      <c r="O174" s="40"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="38"/>
-      <c r="O175" s="39"/>
+      <c r="A175" s="39"/>
+      <c r="O175" s="40"/>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="38"/>
-      <c r="O176" s="39"/>
+      <c r="A176" s="39"/>
+      <c r="O176" s="40"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="38"/>
-      <c r="O177" s="39"/>
+      <c r="A177" s="39"/>
+      <c r="O177" s="40"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="38"/>
-      <c r="O178" s="39"/>
+      <c r="A178" s="39"/>
+      <c r="O178" s="40"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="38"/>
-      <c r="O179" s="39"/>
+      <c r="A179" s="39"/>
+      <c r="O179" s="40"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="38"/>
-      <c r="O180" s="39"/>
+      <c r="A180" s="39"/>
+      <c r="O180" s="40"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="38"/>
-      <c r="O181" s="39"/>
+      <c r="A181" s="39"/>
+      <c r="O181" s="40"/>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="38"/>
-      <c r="O182" s="39"/>
+      <c r="A182" s="39"/>
+      <c r="O182" s="40"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="38"/>
-      <c r="O183" s="39"/>
+      <c r="A183" s="39"/>
+      <c r="O183" s="40"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="38"/>
-      <c r="O184" s="39"/>
+      <c r="A184" s="39"/>
+      <c r="O184" s="40"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="38"/>
-      <c r="O185" s="39"/>
+      <c r="A185" s="39"/>
+      <c r="O185" s="40"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="38"/>
-      <c r="O186" s="39"/>
+      <c r="A186" s="39"/>
+      <c r="O186" s="40"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="38"/>
-      <c r="O187" s="39"/>
+      <c r="A187" s="39"/>
+      <c r="O187" s="40"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="38"/>
-      <c r="O188" s="39"/>
+      <c r="A188" s="39"/>
+      <c r="O188" s="40"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="38"/>
-      <c r="O189" s="39"/>
+      <c r="A189" s="39"/>
+      <c r="O189" s="40"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="38"/>
-      <c r="O190" s="39"/>
+      <c r="A190" s="39"/>
+      <c r="O190" s="40"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="38"/>
-      <c r="O191" s="39"/>
+      <c r="A191" s="39"/>
+      <c r="O191" s="40"/>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="38"/>
-      <c r="O192" s="39"/>
+      <c r="A192" s="39"/>
+      <c r="O192" s="40"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="38"/>
-      <c r="O193" s="39"/>
+      <c r="A193" s="39"/>
+      <c r="O193" s="40"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="38"/>
-      <c r="O194" s="39"/>
+      <c r="A194" s="39"/>
+      <c r="O194" s="40"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="38"/>
-      <c r="O195" s="39"/>
+      <c r="A195" s="39"/>
+      <c r="O195" s="40"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="38"/>
-      <c r="O196" s="39"/>
+      <c r="A196" s="39"/>
+      <c r="O196" s="40"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="38"/>
-      <c r="O197" s="39"/>
+      <c r="A197" s="39"/>
+      <c r="O197" s="40"/>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="38"/>
-      <c r="O198" s="39"/>
+      <c r="A198" s="39"/>
+      <c r="O198" s="40"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="38"/>
-      <c r="O199" s="39"/>
+      <c r="A199" s="39"/>
+      <c r="O199" s="40"/>
     </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="38"/>
-      <c r="O200" s="39"/>
+      <c r="A200" s="39"/>
+      <c r="O200" s="40"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="38"/>
-      <c r="O201" s="39"/>
+      <c r="A201" s="39"/>
+      <c r="O201" s="40"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="38"/>
-      <c r="O202" s="39"/>
+      <c r="A202" s="39"/>
+      <c r="O202" s="40"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="38"/>
-      <c r="O203" s="39"/>
+      <c r="A203" s="39"/>
+      <c r="O203" s="40"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="38"/>
-      <c r="O204" s="39"/>
+      <c r="A204" s="39"/>
+      <c r="O204" s="40"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="38"/>
-      <c r="O205" s="39"/>
+      <c r="A205" s="39"/>
+      <c r="O205" s="40"/>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="38"/>
-      <c r="O206" s="39"/>
+      <c r="A206" s="39"/>
+      <c r="O206" s="40"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="38"/>
-      <c r="O207" s="39"/>
+      <c r="A207" s="39"/>
+      <c r="O207" s="40"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="38"/>
-      <c r="O208" s="39"/>
+      <c r="A208" s="39"/>
+      <c r="O208" s="40"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="38"/>
-      <c r="O209" s="39"/>
+      <c r="A209" s="39"/>
+      <c r="O209" s="40"/>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="38"/>
-      <c r="O210" s="39"/>
+      <c r="A210" s="39"/>
+      <c r="O210" s="40"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="38"/>
-      <c r="O211" s="39"/>
+      <c r="A211" s="39"/>
+      <c r="O211" s="40"/>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="38"/>
-      <c r="O212" s="39"/>
+      <c r="A212" s="39"/>
+      <c r="O212" s="40"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="38"/>
-      <c r="O213" s="39"/>
+      <c r="A213" s="39"/>
+      <c r="O213" s="40"/>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="38"/>
-      <c r="O214" s="39"/>
+      <c r="A214" s="39"/>
+      <c r="O214" s="40"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="38"/>
-      <c r="O215" s="39"/>
+      <c r="A215" s="39"/>
+      <c r="O215" s="40"/>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="38"/>
-      <c r="O216" s="39"/>
+      <c r="A216" s="39"/>
+      <c r="O216" s="40"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="38"/>
-      <c r="O217" s="39"/>
+      <c r="A217" s="39"/>
+      <c r="O217" s="40"/>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="38"/>
-      <c r="O218" s="39"/>
+      <c r="A218" s="39"/>
+      <c r="O218" s="40"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="38"/>
-      <c r="O219" s="39"/>
+      <c r="A219" s="39"/>
+      <c r="O219" s="40"/>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="38"/>
-      <c r="O220" s="39"/>
+      <c r="A220" s="39"/>
+      <c r="O220" s="40"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="38"/>
-      <c r="O221" s="39"/>
+      <c r="A221" s="39"/>
+      <c r="O221" s="40"/>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="38"/>
-      <c r="O222" s="39"/>
+      <c r="A222" s="39"/>
+      <c r="O222" s="40"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="38"/>
-      <c r="O223" s="39"/>
+      <c r="A223" s="39"/>
+      <c r="O223" s="40"/>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="38"/>
-      <c r="O224" s="39"/>
+      <c r="A224" s="39"/>
+      <c r="O224" s="40"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="38"/>
-      <c r="O225" s="39"/>
+      <c r="A225" s="39"/>
+      <c r="O225" s="40"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="38"/>
-      <c r="O226" s="39"/>
+      <c r="A226" s="39"/>
+      <c r="O226" s="40"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="38"/>
-      <c r="O227" s="39"/>
+      <c r="A227" s="39"/>
+      <c r="O227" s="40"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="38"/>
-      <c r="O228" s="39"/>
+      <c r="A228" s="39"/>
+      <c r="O228" s="40"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="38"/>
-      <c r="O229" s="39"/>
+      <c r="A229" s="39"/>
+      <c r="O229" s="40"/>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="38"/>
-      <c r="O230" s="39"/>
+      <c r="A230" s="39"/>
+      <c r="O230" s="40"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="38"/>
-      <c r="O231" s="39"/>
+      <c r="A231" s="39"/>
+      <c r="O231" s="40"/>
     </row>
     <row r="232" spans="1:15">
-      <c r="A232" s="38"/>
-      <c r="O232" s="39"/>
+      <c r="A232" s="39"/>
+      <c r="O232" s="40"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="38"/>
-      <c r="O233" s="39"/>
+      <c r="A233" s="39"/>
+      <c r="O233" s="40"/>
     </row>
     <row r="234" spans="1:15">
-      <c r="A234" s="38"/>
-      <c r="O234" s="39"/>
+      <c r="A234" s="39"/>
+      <c r="O234" s="40"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="38"/>
-      <c r="O235" s="39"/>
+      <c r="A235" s="39"/>
+      <c r="O235" s="40"/>
     </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="38"/>
-      <c r="O236" s="39"/>
+      <c r="A236" s="39"/>
+      <c r="O236" s="40"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="38"/>
-      <c r="O237" s="39"/>
+      <c r="A237" s="39"/>
+      <c r="O237" s="40"/>
     </row>
     <row r="238" spans="1:15">
-      <c r="A238" s="38"/>
-      <c r="O238" s="39"/>
+      <c r="A238" s="39"/>
+      <c r="O238" s="40"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="38"/>
-      <c r="O239" s="39"/>
+      <c r="A239" s="39"/>
+      <c r="O239" s="40"/>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="38"/>
-      <c r="O240" s="39"/>
+      <c r="A240" s="39"/>
+      <c r="O240" s="40"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="38"/>
-      <c r="O241" s="39"/>
+      <c r="A241" s="39"/>
+      <c r="O241" s="40"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="38"/>
-      <c r="O242" s="39"/>
+      <c r="A242" s="39"/>
+      <c r="O242" s="40"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="38"/>
-      <c r="O243" s="39"/>
+      <c r="A243" s="39"/>
+      <c r="O243" s="40"/>
     </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="38"/>
-      <c r="O244" s="39"/>
+      <c r="A244" s="39"/>
+      <c r="O244" s="40"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="38"/>
-      <c r="O245" s="39"/>
+      <c r="A245" s="39"/>
+      <c r="O245" s="40"/>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="38"/>
-      <c r="O246" s="39"/>
+      <c r="A246" s="39"/>
+      <c r="O246" s="40"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="38"/>
-      <c r="O247" s="39"/>
+      <c r="A247" s="39"/>
+      <c r="O247" s="40"/>
     </row>
     <row r="248" spans="1:15">
-      <c r="A248" s="38"/>
-      <c r="O248" s="39"/>
+      <c r="A248" s="39"/>
+      <c r="O248" s="40"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="38"/>
-      <c r="O249" s="39"/>
+      <c r="A249" s="39"/>
+      <c r="O249" s="40"/>
     </row>
     <row r="250" spans="1:15">
-      <c r="A250" s="38"/>
-      <c r="O250" s="39"/>
+      <c r="A250" s="39"/>
+      <c r="O250" s="40"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="38"/>
-      <c r="O251" s="39"/>
+      <c r="A251" s="39"/>
+      <c r="O251" s="40"/>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="38"/>
-      <c r="O252" s="39"/>
+      <c r="A252" s="39"/>
+      <c r="O252" s="40"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="38"/>
-      <c r="O253" s="39"/>
+      <c r="A253" s="39"/>
+      <c r="O253" s="40"/>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="38"/>
-      <c r="O254" s="39"/>
+      <c r="A254" s="39"/>
+      <c r="O254" s="40"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="38"/>
-      <c r="O255" s="39"/>
+      <c r="A255" s="39"/>
+      <c r="O255" s="40"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="38"/>
-      <c r="O256" s="39"/>
+      <c r="A256" s="39"/>
+      <c r="O256" s="40"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="38"/>
-      <c r="O257" s="39"/>
+      <c r="A257" s="39"/>
+      <c r="O257" s="40"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="38"/>
-      <c r="O258" s="39"/>
+      <c r="A258" s="39"/>
+      <c r="O258" s="40"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="38"/>
-      <c r="O259" s="39"/>
+      <c r="A259" s="39"/>
+      <c r="O259" s="40"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="38"/>
-      <c r="O260" s="39"/>
+      <c r="A260" s="39"/>
+      <c r="O260" s="40"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="38"/>
-      <c r="O261" s="39"/>
+      <c r="A261" s="39"/>
+      <c r="O261" s="40"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="38"/>
-      <c r="O262" s="39"/>
+      <c r="A262" s="39"/>
+      <c r="O262" s="40"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="38"/>
-      <c r="O263" s="39"/>
+      <c r="A263" s="39"/>
+      <c r="O263" s="40"/>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="38"/>
-      <c r="O264" s="39"/>
+      <c r="A264" s="39"/>
+      <c r="O264" s="40"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="38"/>
-      <c r="O265" s="39"/>
+      <c r="A265" s="39"/>
+      <c r="O265" s="40"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="38"/>
-      <c r="O266" s="39"/>
+      <c r="A266" s="39"/>
+      <c r="O266" s="40"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="38"/>
-      <c r="O267" s="39"/>
+      <c r="A267" s="39"/>
+      <c r="O267" s="40"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="38"/>
-      <c r="O268" s="39"/>
+      <c r="A268" s="39"/>
+      <c r="O268" s="40"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="38"/>
-      <c r="O269" s="39"/>
+      <c r="A269" s="39"/>
+      <c r="O269" s="40"/>
     </row>
     <row r="270" spans="1:15">
-      <c r="A270" s="38"/>
-      <c r="O270" s="39"/>
+      <c r="A270" s="39"/>
+      <c r="O270" s="40"/>
     </row>
     <row r="271" spans="1:15">
-      <c r="A271" s="38"/>
-      <c r="O271" s="39"/>
+      <c r="A271" s="39"/>
+      <c r="O271" s="40"/>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="38"/>
-      <c r="O272" s="39"/>
+      <c r="A272" s="39"/>
+      <c r="O272" s="40"/>
     </row>
     <row r="273" spans="1:15">
-      <c r="A273" s="38"/>
-      <c r="O273" s="39"/>
+      <c r="A273" s="39"/>
+      <c r="O273" s="40"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="38"/>
-      <c r="O274" s="39"/>
+      <c r="A274" s="39"/>
+      <c r="O274" s="40"/>
     </row>
     <row r="275" spans="1:15">
-      <c r="A275" s="38"/>
-      <c r="O275" s="39"/>
+      <c r="A275" s="39"/>
+      <c r="O275" s="40"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="38"/>
-      <c r="O276" s="39"/>
+      <c r="A276" s="39"/>
+      <c r="O276" s="40"/>
     </row>
     <row r="277" spans="1:15">
-      <c r="A277" s="38"/>
-      <c r="O277" s="39"/>
+      <c r="A277" s="39"/>
+      <c r="O277" s="40"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="38"/>
-      <c r="O278" s="39"/>
+      <c r="A278" s="39"/>
+      <c r="O278" s="40"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="38"/>
-      <c r="O279" s="39"/>
+      <c r="A279" s="39"/>
+      <c r="O279" s="40"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="38"/>
-      <c r="O280" s="39"/>
+      <c r="A280" s="39"/>
+      <c r="O280" s="40"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="38"/>
-      <c r="O281" s="39"/>
+      <c r="A281" s="39"/>
+      <c r="O281" s="40"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="38"/>
-      <c r="O282" s="39"/>
+      <c r="A282" s="39"/>
+      <c r="O282" s="40"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="38"/>
-      <c r="O283" s="39"/>
+      <c r="A283" s="39"/>
+      <c r="O283" s="40"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="38"/>
-      <c r="O284" s="39"/>
+      <c r="A284" s="39"/>
+      <c r="O284" s="40"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="38"/>
-      <c r="O285" s="39"/>
+      <c r="A285" s="39"/>
+      <c r="O285" s="40"/>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="38"/>
-      <c r="O286" s="39"/>
+      <c r="A286" s="39"/>
+      <c r="O286" s="40"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="38"/>
-      <c r="O287" s="39"/>
+      <c r="A287" s="39"/>
+      <c r="O287" s="40"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="38"/>
-      <c r="O288" s="39"/>
+      <c r="A288" s="39"/>
+      <c r="O288" s="40"/>
     </row>
     <row r="289" spans="1:15">
-      <c r="A289" s="38"/>
-      <c r="O289" s="39"/>
+      <c r="A289" s="39"/>
+      <c r="O289" s="40"/>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="38"/>
-      <c r="O290" s="39"/>
+      <c r="A290" s="39"/>
+      <c r="O290" s="40"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="38"/>
-      <c r="O291" s="39"/>
+      <c r="A291" s="39"/>
+      <c r="O291" s="40"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="38"/>
-      <c r="O292" s="39"/>
+      <c r="A292" s="39"/>
+      <c r="O292" s="40"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="38"/>
-      <c r="O293" s="39"/>
+      <c r="A293" s="39"/>
+      <c r="O293" s="40"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="38"/>
-      <c r="O294" s="39"/>
+      <c r="A294" s="39"/>
+      <c r="O294" s="40"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="38"/>
-      <c r="O295" s="39"/>
+      <c r="A295" s="39"/>
+      <c r="O295" s="40"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="38"/>
-      <c r="O296" s="39"/>
+      <c r="A296" s="39"/>
+      <c r="O296" s="40"/>
     </row>
     <row r="297" spans="1:15">
-      <c r="A297" s="38"/>
-      <c r="O297" s="39"/>
+      <c r="A297" s="39"/>
+      <c r="O297" s="40"/>
     </row>
     <row r="298" spans="1:15">
-      <c r="A298" s="38"/>
-      <c r="O298" s="39"/>
+      <c r="A298" s="39"/>
+      <c r="O298" s="40"/>
     </row>
     <row r="299" spans="1:15">
-      <c r="A299" s="38"/>
-      <c r="O299" s="39"/>
+      <c r="A299" s="39"/>
+      <c r="O299" s="40"/>
     </row>
     <row r="300" spans="1:15">
-      <c r="A300" s="38"/>
-      <c r="O300" s="39"/>
+      <c r="A300" s="39"/>
+      <c r="O300" s="40"/>
     </row>
     <row r="301" spans="1:15">
-      <c r="A301" s="38"/>
-      <c r="O301" s="39"/>
+      <c r="A301" s="39"/>
+      <c r="O301" s="40"/>
     </row>
     <row r="302" spans="1:15">
-      <c r="A302" s="38"/>
-      <c r="O302" s="39"/>
+      <c r="A302" s="39"/>
+      <c r="O302" s="40"/>
     </row>
     <row r="303" spans="1:15">
-      <c r="A303" s="38"/>
-      <c r="O303" s="39"/>
+      <c r="A303" s="39"/>
+      <c r="O303" s="40"/>
     </row>
     <row r="304" spans="1:15">
-      <c r="A304" s="38"/>
-      <c r="O304" s="39"/>
+      <c r="A304" s="39"/>
+      <c r="O304" s="40"/>
     </row>
     <row r="305" spans="1:15">
-      <c r="A305" s="38"/>
-      <c r="O305" s="39"/>
+      <c r="A305" s="39"/>
+      <c r="O305" s="40"/>
     </row>
     <row r="306" spans="1:15">
-      <c r="A306" s="38"/>
-      <c r="O306" s="39"/>
+      <c r="A306" s="39"/>
+      <c r="O306" s="40"/>
     </row>
     <row r="307" spans="1:15">
-      <c r="A307" s="38"/>
-      <c r="O307" s="39"/>
+      <c r="A307" s="39"/>
+      <c r="O307" s="40"/>
     </row>
     <row r="308" spans="1:15">
-      <c r="A308" s="38"/>
-      <c r="O308" s="39"/>
+      <c r="A308" s="39"/>
+      <c r="O308" s="40"/>
     </row>
     <row r="309" spans="1:15">
-      <c r="A309" s="38"/>
-      <c r="O309" s="39"/>
+      <c r="A309" s="39"/>
+      <c r="O309" s="40"/>
     </row>
     <row r="310" spans="1:15">
-      <c r="A310" s="38"/>
-      <c r="O310" s="39"/>
+      <c r="A310" s="39"/>
+      <c r="O310" s="40"/>
     </row>
     <row r="311" spans="1:15">
-      <c r="A311" s="38"/>
-      <c r="O311" s="39"/>
+      <c r="A311" s="39"/>
+      <c r="O311" s="40"/>
     </row>
     <row r="312" spans="1:15">
-      <c r="A312" s="38"/>
-      <c r="O312" s="39"/>
+      <c r="A312" s="39"/>
+      <c r="O312" s="40"/>
     </row>
     <row r="313" spans="1:15">
-      <c r="A313" s="38"/>
-      <c r="O313" s="39"/>
+      <c r="A313" s="39"/>
+      <c r="O313" s="40"/>
     </row>
     <row r="314" spans="1:15">
-      <c r="A314" s="38"/>
-      <c r="O314" s="39"/>
+      <c r="A314" s="39"/>
+      <c r="O314" s="40"/>
     </row>
     <row r="315" spans="1:15">
-      <c r="A315" s="38"/>
-      <c r="O315" s="39"/>
+      <c r="A315" s="39"/>
+      <c r="O315" s="40"/>
     </row>
     <row r="316" spans="1:15">
-      <c r="A316" s="38"/>
-      <c r="O316" s="39"/>
+      <c r="A316" s="39"/>
+      <c r="O316" s="40"/>
     </row>
     <row r="317" spans="1:15">
-      <c r="A317" s="38"/>
-      <c r="O317" s="39"/>
+      <c r="A317" s="39"/>
+      <c r="O317" s="40"/>
     </row>
     <row r="318" spans="1:15">
-      <c r="A318" s="38"/>
-      <c r="O318" s="39"/>
+      <c r="A318" s="39"/>
+      <c r="O318" s="40"/>
     </row>
     <row r="319" spans="1:15">
-      <c r="A319" s="38"/>
-      <c r="O319" s="39"/>
+      <c r="A319" s="39"/>
+      <c r="O319" s="40"/>
     </row>
     <row r="320" spans="1:15">
-      <c r="A320" s="38"/>
-      <c r="O320" s="39"/>
+      <c r="A320" s="39"/>
+      <c r="O320" s="40"/>
     </row>
     <row r="321" spans="1:15">
-      <c r="A321" s="38"/>
-      <c r="O321" s="39"/>
+      <c r="A321" s="39"/>
+      <c r="O321" s="40"/>
     </row>
     <row r="322" spans="1:15">
-      <c r="A322" s="38"/>
-      <c r="O322" s="39"/>
+      <c r="A322" s="39"/>
+      <c r="O322" s="40"/>
     </row>
     <row r="323" spans="1:15">
-      <c r="A323" s="38"/>
-      <c r="O323" s="39"/>
+      <c r="A323" s="39"/>
+      <c r="O323" s="40"/>
     </row>
     <row r="324" spans="1:15">
-      <c r="A324" s="38"/>
-      <c r="O324" s="39"/>
+      <c r="A324" s="39"/>
+      <c r="O324" s="40"/>
     </row>
     <row r="325" spans="1:15">
-      <c r="A325" s="38"/>
-      <c r="O325" s="39"/>
+      <c r="A325" s="39"/>
+      <c r="O325" s="40"/>
     </row>
     <row r="326" spans="1:15">
-      <c r="A326" s="38"/>
-      <c r="O326" s="39"/>
+      <c r="A326" s="39"/>
+      <c r="O326" s="40"/>
     </row>
     <row r="327" spans="1:15">
-      <c r="A327" s="38"/>
-      <c r="O327" s="39"/>
+      <c r="A327" s="39"/>
+      <c r="O327" s="40"/>
     </row>
     <row r="328" spans="1:15">
-      <c r="A328" s="38"/>
-      <c r="O328" s="39"/>
+      <c r="A328" s="39"/>
+      <c r="O328" s="40"/>
     </row>
     <row r="329" spans="1:15">
-      <c r="A329" s="38"/>
-      <c r="O329" s="39"/>
+      <c r="A329" s="39"/>
+      <c r="O329" s="40"/>
     </row>
     <row r="330" spans="1:15">
-      <c r="A330" s="38"/>
-      <c r="O330" s="39"/>
+      <c r="A330" s="39"/>
+      <c r="O330" s="40"/>
     </row>
     <row r="331" spans="1:15">
-      <c r="A331" s="38"/>
-      <c r="O331" s="39"/>
+      <c r="A331" s="39"/>
+      <c r="O331" s="40"/>
     </row>
     <row r="332" spans="1:15">
-      <c r="A332" s="38"/>
-      <c r="O332" s="39"/>
+      <c r="A332" s="39"/>
+      <c r="O332" s="40"/>
     </row>
     <row r="333" spans="1:15">
-      <c r="A333" s="38"/>
-      <c r="O333" s="39"/>
+      <c r="A333" s="39"/>
+      <c r="O333" s="40"/>
     </row>
     <row r="334" spans="1:15">
-      <c r="A334" s="38"/>
-      <c r="O334" s="39"/>
+      <c r="A334" s="39"/>
+      <c r="O334" s="40"/>
     </row>
     <row r="335" spans="1:15">
-      <c r="A335" s="38"/>
-      <c r="O335" s="39"/>
+      <c r="A335" s="39"/>
+      <c r="O335" s="40"/>
     </row>
     <row r="336" spans="1:15">
-      <c r="A336" s="38"/>
-      <c r="O336" s="39"/>
+      <c r="A336" s="39"/>
+      <c r="O336" s="40"/>
     </row>
     <row r="337" spans="1:15">
-      <c r="A337" s="38"/>
-      <c r="O337" s="39"/>
+      <c r="A337" s="39"/>
+      <c r="O337" s="40"/>
     </row>
     <row r="338" spans="1:15">
-      <c r="A338" s="38"/>
-      <c r="O338" s="39"/>
+      <c r="A338" s="39"/>
+      <c r="O338" s="40"/>
     </row>
     <row r="339" spans="1:15">
-      <c r="A339" s="38"/>
-      <c r="O339" s="39"/>
+      <c r="A339" s="39"/>
+      <c r="O339" s="40"/>
     </row>
     <row r="340" spans="1:15">
-      <c r="A340" s="38"/>
-      <c r="O340" s="39"/>
+      <c r="A340" s="39"/>
+      <c r="O340" s="40"/>
     </row>
     <row r="341" spans="1:15">
-      <c r="A341" s="38"/>
-      <c r="O341" s="39"/>
+      <c r="A341" s="39"/>
+      <c r="O341" s="40"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="38"/>
-      <c r="O342" s="39"/>
+      <c r="A342" s="39"/>
+      <c r="O342" s="40"/>
     </row>
     <row r="343" spans="1:15">
-      <c r="A343" s="38"/>
-      <c r="O343" s="39"/>
+      <c r="A343" s="39"/>
+      <c r="O343" s="40"/>
     </row>
     <row r="344" spans="1:15">
-      <c r="A344" s="38"/>
-      <c r="O344" s="39"/>
+      <c r="A344" s="39"/>
+      <c r="O344" s="40"/>
     </row>
     <row r="345" spans="1:15">
-      <c r="A345" s="38"/>
-      <c r="O345" s="39"/>
+      <c r="A345" s="39"/>
+      <c r="O345" s="40"/>
     </row>
     <row r="346" spans="1:15">
-      <c r="A346" s="38"/>
-      <c r="O346" s="39"/>
+      <c r="A346" s="39"/>
+      <c r="O346" s="40"/>
     </row>
     <row r="347" spans="1:15">
-      <c r="A347" s="38"/>
-      <c r="O347" s="39"/>
+      <c r="A347" s="39"/>
+      <c r="O347" s="40"/>
     </row>
     <row r="348" spans="1:15">
-      <c r="A348" s="38"/>
-      <c r="O348" s="39"/>
+      <c r="A348" s="39"/>
+      <c r="O348" s="40"/>
     </row>
     <row r="349" spans="1:15">
-      <c r="A349" s="38"/>
-      <c r="O349" s="39"/>
+      <c r="A349" s="39"/>
+      <c r="O349" s="40"/>
     </row>
     <row r="350" spans="1:15">
-      <c r="A350" s="38"/>
-      <c r="O350" s="39"/>
+      <c r="A350" s="39"/>
+      <c r="O350" s="40"/>
     </row>
     <row r="351" spans="1:15">
-      <c r="A351" s="38"/>
-      <c r="O351" s="39"/>
+      <c r="A351" s="39"/>
+      <c r="O351" s="40"/>
     </row>
     <row r="352" spans="1:15">
-      <c r="A352" s="38"/>
-      <c r="O352" s="39"/>
+      <c r="A352" s="39"/>
+      <c r="O352" s="40"/>
     </row>
     <row r="353" spans="1:15">
-      <c r="A353" s="38"/>
-      <c r="O353" s="39"/>
+      <c r="A353" s="39"/>
+      <c r="O353" s="40"/>
     </row>
     <row r="354" spans="1:15">
-      <c r="A354" s="38"/>
-      <c r="O354" s="39"/>
+      <c r="A354" s="39"/>
+      <c r="O354" s="40"/>
     </row>
     <row r="355" spans="1:15">
-      <c r="A355" s="38"/>
-      <c r="O355" s="39"/>
+      <c r="A355" s="39"/>
+      <c r="O355" s="40"/>
     </row>
     <row r="356" spans="1:15">
-      <c r="A356" s="38"/>
-      <c r="O356" s="39"/>
+      <c r="A356" s="39"/>
+      <c r="O356" s="40"/>
     </row>
     <row r="357" spans="1:15">
-      <c r="A357" s="38"/>
-      <c r="O357" s="39"/>
+      <c r="A357" s="39"/>
+      <c r="O357" s="40"/>
     </row>
     <row r="358" spans="1:15">
-      <c r="A358" s="38"/>
-      <c r="O358" s="39"/>
+      <c r="A358" s="39"/>
+      <c r="O358" s="40"/>
     </row>
     <row r="359" spans="1:15">
-      <c r="A359" s="38"/>
-      <c r="O359" s="39"/>
+      <c r="A359" s="39"/>
+      <c r="O359" s="40"/>
     </row>
     <row r="360" spans="1:15">
-      <c r="A360" s="38"/>
-      <c r="O360" s="39"/>
+      <c r="A360" s="39"/>
+      <c r="O360" s="40"/>
     </row>
     <row r="361" spans="1:15">
-      <c r="A361" s="38"/>
-      <c r="O361" s="39"/>
+      <c r="A361" s="39"/>
+      <c r="O361" s="40"/>
     </row>
     <row r="362" spans="1:15">
-      <c r="A362" s="38"/>
-      <c r="O362" s="39"/>
+      <c r="A362" s="39"/>
+      <c r="O362" s="40"/>
     </row>
     <row r="363" spans="1:15">
-      <c r="A363" s="38"/>
-      <c r="O363" s="39"/>
+      <c r="A363" s="39"/>
+      <c r="O363" s="40"/>
     </row>
     <row r="364" spans="1:15">
-      <c r="A364" s="38"/>
-      <c r="O364" s="39"/>
+      <c r="A364" s="39"/>
+      <c r="O364" s="40"/>
     </row>
     <row r="365" spans="1:15">
-      <c r="A365" s="38"/>
-      <c r="O365" s="39"/>
+      <c r="A365" s="39"/>
+      <c r="O365" s="40"/>
     </row>
     <row r="366" spans="1:15">
-      <c r="A366" s="38"/>
-      <c r="O366" s="39"/>
+      <c r="A366" s="39"/>
+      <c r="O366" s="40"/>
     </row>
     <row r="367" spans="1:15">
-      <c r="A367" s="38"/>
-      <c r="O367" s="39"/>
+      <c r="A367" s="39"/>
+      <c r="O367" s="40"/>
     </row>
     <row r="368" spans="1:15">
-      <c r="A368" s="38"/>
-      <c r="O368" s="39"/>
+      <c r="A368" s="39"/>
+      <c r="O368" s="40"/>
     </row>
     <row r="369" spans="1:15">
-      <c r="A369" s="38"/>
-      <c r="O369" s="39"/>
+      <c r="A369" s="39"/>
+      <c r="O369" s="40"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="38"/>
-      <c r="O370" s="39"/>
+      <c r="A370" s="39"/>
+      <c r="O370" s="40"/>
     </row>
     <row r="371" spans="1:15">
-      <c r="A371" s="38"/>
-      <c r="O371" s="39"/>
+      <c r="A371" s="39"/>
+      <c r="O371" s="40"/>
     </row>
     <row r="372" spans="1:15">
-      <c r="A372" s="38"/>
-      <c r="O372" s="39"/>
+      <c r="A372" s="39"/>
+      <c r="O372" s="40"/>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="38"/>
-      <c r="O373" s="39"/>
+      <c r="A373" s="39"/>
+      <c r="O373" s="40"/>
     </row>
     <row r="374" spans="1:15">
-      <c r="A374" s="38"/>
-      <c r="O374" s="39"/>
+      <c r="A374" s="39"/>
+      <c r="O374" s="40"/>
     </row>
     <row r="375" spans="1:15">
-      <c r="A375" s="38"/>
-      <c r="O375" s="39"/>
+      <c r="A375" s="39"/>
+      <c r="O375" s="40"/>
     </row>
     <row r="376" spans="1:15">
-      <c r="A376" s="38"/>
-      <c r="O376" s="39"/>
+      <c r="A376" s="39"/>
+      <c r="O376" s="40"/>
     </row>
     <row r="377" spans="1:15">
-      <c r="A377" s="38"/>
-      <c r="O377" s="39"/>
+      <c r="A377" s="39"/>
+      <c r="O377" s="40"/>
     </row>
     <row r="378" spans="1:15">
-      <c r="A378" s="38"/>
-      <c r="O378" s="39"/>
+      <c r="A378" s="39"/>
+      <c r="O378" s="40"/>
     </row>
     <row r="379" spans="1:15">
-      <c r="A379" s="38"/>
-      <c r="O379" s="39"/>
+      <c r="A379" s="39"/>
+      <c r="O379" s="40"/>
     </row>
     <row r="380" spans="1:15">
-      <c r="A380" s="38"/>
-      <c r="O380" s="39"/>
+      <c r="A380" s="39"/>
+      <c r="O380" s="40"/>
     </row>
     <row r="381" spans="1:15">
-      <c r="A381" s="38"/>
-      <c r="O381" s="39"/>
+      <c r="A381" s="39"/>
+      <c r="O381" s="40"/>
     </row>
     <row r="382" spans="1:15">
-      <c r="A382" s="38"/>
-      <c r="O382" s="39"/>
+      <c r="A382" s="39"/>
+      <c r="O382" s="40"/>
     </row>
     <row r="383" spans="1:15">
-      <c r="A383" s="38"/>
-      <c r="O383" s="39"/>
+      <c r="A383" s="39"/>
+      <c r="O383" s="40"/>
     </row>
     <row r="384" spans="1:15">
-      <c r="A384" s="38"/>
-      <c r="O384" s="39"/>
+      <c r="A384" s="39"/>
+      <c r="O384" s="40"/>
     </row>
     <row r="385" spans="1:15">
-      <c r="A385" s="38"/>
-      <c r="O385" s="39"/>
+      <c r="A385" s="39"/>
+      <c r="O385" s="40"/>
     </row>
     <row r="386" spans="1:15">
-      <c r="A386" s="38"/>
-      <c r="O386" s="39"/>
+      <c r="A386" s="39"/>
+      <c r="O386" s="40"/>
     </row>
     <row r="387" spans="1:15">
-      <c r="A387" s="38"/>
-      <c r="O387" s="39"/>
+      <c r="A387" s="39"/>
+      <c r="O387" s="40"/>
     </row>
     <row r="388" spans="1:15">
-      <c r="A388" s="38"/>
-      <c r="O388" s="39"/>
+      <c r="A388" s="39"/>
+      <c r="O388" s="40"/>
     </row>
     <row r="389" spans="1:15">
-      <c r="A389" s="38"/>
-      <c r="O389" s="39"/>
+      <c r="A389" s="39"/>
+      <c r="O389" s="40"/>
     </row>
     <row r="390" spans="1:15">
-      <c r="A390" s="38"/>
-      <c r="O390" s="39"/>
+      <c r="A390" s="39"/>
+      <c r="O390" s="40"/>
     </row>
     <row r="391" spans="1:15">
-      <c r="A391" s="38"/>
-      <c r="O391" s="39"/>
+      <c r="A391" s="39"/>
+      <c r="O391" s="40"/>
     </row>
     <row r="392" spans="1:15">
-      <c r="A392" s="38"/>
-      <c r="O392" s="39"/>
+      <c r="A392" s="39"/>
+      <c r="O392" s="40"/>
     </row>
     <row r="393" spans="1:15">
-      <c r="A393" s="38"/>
-      <c r="O393" s="39"/>
+      <c r="A393" s="39"/>
+      <c r="O393" s="40"/>
     </row>
     <row r="394" spans="1:15">
-      <c r="A394" s="38"/>
-      <c r="O394" s="39"/>
+      <c r="A394" s="39"/>
+      <c r="O394" s="40"/>
     </row>
     <row r="395" spans="1:15">
-      <c r="A395" s="38"/>
-      <c r="O395" s="39"/>
+      <c r="A395" s="39"/>
+      <c r="O395" s="40"/>
     </row>
     <row r="396" spans="1:15">
-      <c r="A396" s="38"/>
-      <c r="O396" s="39"/>
+      <c r="A396" s="39"/>
+      <c r="O396" s="40"/>
     </row>
     <row r="397" spans="1:15">
-      <c r="A397" s="38"/>
-      <c r="O397" s="39"/>
+      <c r="A397" s="39"/>
+      <c r="O397" s="40"/>
     </row>
     <row r="398" spans="1:15">
-      <c r="A398" s="38"/>
-      <c r="O398" s="39"/>
+      <c r="A398" s="39"/>
+      <c r="O398" s="40"/>
     </row>
     <row r="399" spans="1:15">
-      <c r="A399" s="38"/>
-      <c r="O399" s="39"/>
+      <c r="A399" s="39"/>
+      <c r="O399" s="40"/>
     </row>
     <row r="400" spans="1:15">
-      <c r="A400" s="38"/>
-      <c r="O400" s="39"/>
+      <c r="A400" s="39"/>
+      <c r="O400" s="40"/>
     </row>
     <row r="401" spans="1:15">
-      <c r="A401" s="38"/>
-      <c r="O401" s="39"/>
+      <c r="A401" s="39"/>
+      <c r="O401" s="40"/>
     </row>
     <row r="402" spans="1:15">
-      <c r="A402" s="38"/>
-      <c r="O402" s="39"/>
+      <c r="A402" s="39"/>
+      <c r="O402" s="40"/>
     </row>
     <row r="403" spans="1:15">
-      <c r="A403" s="38"/>
-      <c r="O403" s="39"/>
+      <c r="A403" s="39"/>
+      <c r="O403" s="40"/>
     </row>
     <row r="404" spans="1:15">
-      <c r="A404" s="38"/>
-      <c r="O404" s="39"/>
+      <c r="A404" s="39"/>
+      <c r="O404" s="40"/>
     </row>
     <row r="405" spans="1:15">
-      <c r="A405" s="38"/>
-      <c r="O405" s="39"/>
+      <c r="A405" s="39"/>
+      <c r="O405" s="40"/>
     </row>
     <row r="406" spans="1:15">
-      <c r="A406" s="38"/>
-      <c r="O406" s="39"/>
+      <c r="A406" s="39"/>
+      <c r="O406" s="40"/>
     </row>
     <row r="407" spans="1:15">
-      <c r="A407" s="38"/>
-      <c r="O407" s="39"/>
+      <c r="A407" s="39"/>
+      <c r="O407" s="40"/>
     </row>
     <row r="408" spans="1:15">
-      <c r="A408" s="38"/>
-      <c r="O408" s="39"/>
+      <c r="A408" s="39"/>
+      <c r="O408" s="40"/>
     </row>
     <row r="409" spans="1:15">
-      <c r="A409" s="38"/>
-      <c r="O409" s="39"/>
+      <c r="A409" s="39"/>
+      <c r="O409" s="40"/>
     </row>
     <row r="410" spans="1:15">
-      <c r="A410" s="38"/>
-      <c r="O410" s="39"/>
+      <c r="A410" s="39"/>
+      <c r="O410" s="40"/>
     </row>
     <row r="411" spans="1:15">
-      <c r="A411" s="38"/>
-      <c r="O411" s="39"/>
+      <c r="A411" s="39"/>
+      <c r="O411" s="40"/>
     </row>
     <row r="412" spans="1:15">
-      <c r="A412" s="38"/>
-      <c r="O412" s="39"/>
+      <c r="A412" s="39"/>
+      <c r="O412" s="40"/>
     </row>
     <row r="413" spans="1:15">
-      <c r="A413" s="38"/>
-      <c r="O413" s="39"/>
+      <c r="A413" s="39"/>
+      <c r="O413" s="40"/>
     </row>
     <row r="414" spans="1:15">
-      <c r="A414" s="38"/>
-      <c r="O414" s="39"/>
+      <c r="A414" s="39"/>
+      <c r="O414" s="40"/>
     </row>
     <row r="415" spans="1:15">
-      <c r="A415" s="38"/>
-      <c r="O415" s="39"/>
+      <c r="A415" s="39"/>
+      <c r="O415" s="40"/>
     </row>
     <row r="416" spans="1:15">
-      <c r="A416" s="38"/>
-      <c r="O416" s="39"/>
+      <c r="A416" s="39"/>
+      <c r="O416" s="40"/>
     </row>
     <row r="417" spans="1:15">
-      <c r="A417" s="38"/>
-      <c r="O417" s="39"/>
+      <c r="A417" s="39"/>
+      <c r="O417" s="40"/>
     </row>
     <row r="418" spans="1:15">
-      <c r="A418" s="38"/>
-      <c r="O418" s="39"/>
+      <c r="A418" s="39"/>
+      <c r="O418" s="40"/>
     </row>
     <row r="419" spans="1:15">
-      <c r="A419" s="38"/>
-      <c r="O419" s="39"/>
+      <c r="A419" s="39"/>
+      <c r="O419" s="40"/>
     </row>
     <row r="420" spans="1:15">
-      <c r="A420" s="38"/>
-      <c r="O420" s="39"/>
+      <c r="A420" s="39"/>
+      <c r="O420" s="40"/>
     </row>
     <row r="421" spans="1:15">
-      <c r="A421" s="38"/>
-      <c r="O421" s="39"/>
+      <c r="A421" s="39"/>
+      <c r="O421" s="40"/>
     </row>
     <row r="422" spans="1:15">
-      <c r="A422" s="38"/>
-      <c r="O422" s="39"/>
+      <c r="A422" s="39"/>
+      <c r="O422" s="40"/>
     </row>
     <row r="423" spans="1:15">
-      <c r="A423" s="38"/>
-      <c r="O423" s="39"/>
+      <c r="A423" s="39"/>
+      <c r="O423" s="40"/>
     </row>
     <row r="424" spans="1:15">
-      <c r="A424" s="38"/>
-      <c r="O424" s="39"/>
+      <c r="A424" s="39"/>
+      <c r="O424" s="40"/>
     </row>
     <row r="425" spans="1:15">
-      <c r="A425" s="38"/>
-      <c r="O425" s="39"/>
+      <c r="A425" s="39"/>
+      <c r="O425" s="40"/>
     </row>
     <row r="426" spans="1:15">
-      <c r="A426" s="38"/>
-      <c r="O426" s="39"/>
+      <c r="A426" s="39"/>
+      <c r="O426" s="40"/>
     </row>
     <row r="427" spans="1:15">
-      <c r="A427" s="38"/>
-      <c r="O427" s="39"/>
+      <c r="A427" s="39"/>
+      <c r="O427" s="40"/>
     </row>
     <row r="428" spans="1:15">
-      <c r="A428" s="38"/>
-      <c r="O428" s="39"/>
+      <c r="A428" s="39"/>
+      <c r="O428" s="40"/>
     </row>
     <row r="429" spans="1:15">
-      <c r="A429" s="38"/>
-      <c r="O429" s="39"/>
+      <c r="A429" s="39"/>
+      <c r="O429" s="40"/>
     </row>
     <row r="430" spans="1:15">
-      <c r="A430" s="38"/>
-      <c r="O430" s="39"/>
+      <c r="A430" s="39"/>
+      <c r="O430" s="40"/>
     </row>
     <row r="431" spans="1:15">
-      <c r="A431" s="38"/>
-      <c r="O431" s="39"/>
+      <c r="A431" s="39"/>
+      <c r="O431" s="40"/>
     </row>
     <row r="432" spans="1:15">
-      <c r="A432" s="38"/>
-      <c r="O432" s="39"/>
+      <c r="A432" s="39"/>
+      <c r="O432" s="40"/>
     </row>
     <row r="433" spans="1:15">
-      <c r="A433" s="38"/>
-      <c r="O433" s="39"/>
+      <c r="A433" s="39"/>
+      <c r="O433" s="40"/>
     </row>
     <row r="434" spans="1:15">
-      <c r="A434" s="38"/>
-      <c r="O434" s="39"/>
+      <c r="A434" s="39"/>
+      <c r="O434" s="40"/>
     </row>
     <row r="435" spans="1:15">
-      <c r="A435" s="38"/>
-      <c r="O435" s="39"/>
+      <c r="A435" s="39"/>
+      <c r="O435" s="40"/>
     </row>
     <row r="436" spans="1:15">
-      <c r="A436" s="38"/>
-      <c r="O436" s="39"/>
+      <c r="A436" s="39"/>
+      <c r="O436" s="40"/>
     </row>
     <row r="437" spans="1:15">
-      <c r="A437" s="38"/>
-      <c r="O437" s="39"/>
+      <c r="A437" s="39"/>
+      <c r="O437" s="40"/>
     </row>
     <row r="438" spans="1:15">
-      <c r="A438" s="38"/>
-      <c r="O438" s="39"/>
+      <c r="A438" s="39"/>
+      <c r="O438" s="40"/>
     </row>
     <row r="439" spans="1:15">
-      <c r="A439" s="38"/>
-      <c r="O439" s="39"/>
+      <c r="A439" s="39"/>
+      <c r="O439" s="40"/>
     </row>
     <row r="440" spans="1:15">
-      <c r="A440" s="38"/>
-      <c r="O440" s="39"/>
+      <c r="A440" s="39"/>
+      <c r="O440" s="40"/>
     </row>
     <row r="441" spans="1:15">
-      <c r="A441" s="38"/>
-      <c r="O441" s="39"/>
+      <c r="A441" s="39"/>
+      <c r="O441" s="40"/>
     </row>
     <row r="442" spans="1:15">
-      <c r="A442" s="38"/>
-      <c r="O442" s="39"/>
+      <c r="A442" s="39"/>
+      <c r="O442" s="40"/>
     </row>
     <row r="443" spans="1:15">
-      <c r="A443" s="38"/>
-      <c r="O443" s="39"/>
+      <c r="A443" s="39"/>
+      <c r="O443" s="40"/>
     </row>
     <row r="444" spans="1:15">
-      <c r="A444" s="38"/>
-      <c r="O444" s="39"/>
+      <c r="A444" s="39"/>
+      <c r="O444" s="40"/>
     </row>
     <row r="445" spans="1:15">
-      <c r="A445" s="38"/>
-      <c r="O445" s="39"/>
+      <c r="A445" s="39"/>
+      <c r="O445" s="40"/>
     </row>
     <row r="446" spans="1:15">
-      <c r="A446" s="38"/>
-      <c r="O446" s="39"/>
+      <c r="A446" s="39"/>
+      <c r="O446" s="40"/>
     </row>
     <row r="447" spans="1:15">
-      <c r="A447" s="38"/>
-      <c r="O447" s="39"/>
+      <c r="A447" s="39"/>
+      <c r="O447" s="40"/>
     </row>
     <row r="448" spans="1:15">
-      <c r="A448" s="38"/>
-      <c r="O448" s="39"/>
+      <c r="A448" s="39"/>
+      <c r="O448" s="40"/>
     </row>
     <row r="449" spans="1:15">
-      <c r="A449" s="38"/>
-      <c r="O449" s="39"/>
+      <c r="A449" s="39"/>
+      <c r="O449" s="40"/>
     </row>
     <row r="450" spans="1:15">
-      <c r="A450" s="38"/>
-      <c r="O450" s="39"/>
+      <c r="A450" s="39"/>
+      <c r="O450" s="40"/>
     </row>
     <row r="451" spans="1:15">
-      <c r="A451" s="38"/>
-      <c r="O451" s="39"/>
+      <c r="A451" s="39"/>
+      <c r="O451" s="40"/>
     </row>
     <row r="452" spans="1:15">
-      <c r="A452" s="38"/>
-      <c r="O452" s="39"/>
+      <c r="A452" s="39"/>
+      <c r="O452" s="40"/>
     </row>
     <row r="453" spans="1:15">
-      <c r="A453" s="38"/>
-      <c r="O453" s="39"/>
+      <c r="A453" s="39"/>
+      <c r="O453" s="40"/>
     </row>
     <row r="454" spans="1:15">
-      <c r="A454" s="38"/>
-      <c r="O454" s="39"/>
+      <c r="A454" s="39"/>
+      <c r="O454" s="40"/>
     </row>
     <row r="455" spans="1:15">
-      <c r="A455" s="38"/>
-      <c r="O455" s="39"/>
+      <c r="A455" s="39"/>
+      <c r="O455" s="40"/>
     </row>
     <row r="456" spans="1:15">
-      <c r="A456" s="38"/>
-      <c r="O456" s="39"/>
+      <c r="A456" s="39"/>
+      <c r="O456" s="40"/>
     </row>
     <row r="457" spans="1:15">
-      <c r="A457" s="38"/>
-      <c r="O457" s="39"/>
+      <c r="A457" s="39"/>
+      <c r="O457" s="40"/>
     </row>
     <row r="458" spans="1:15">
-      <c r="A458" s="38"/>
-      <c r="O458" s="39"/>
+      <c r="A458" s="39"/>
+      <c r="O458" s="40"/>
     </row>
     <row r="459" spans="1:15">
-      <c r="A459" s="38"/>
-      <c r="O459" s="39"/>
+      <c r="A459" s="39"/>
+      <c r="O459" s="40"/>
     </row>
     <row r="460" spans="1:15">
-      <c r="A460" s="38"/>
-      <c r="O460" s="39"/>
+      <c r="A460" s="39"/>
+      <c r="O460" s="40"/>
     </row>
     <row r="461" spans="1:15">
-      <c r="A461" s="38"/>
-      <c r="O461" s="39"/>
+      <c r="A461" s="39"/>
+      <c r="O461" s="40"/>
     </row>
     <row r="462" spans="1:15">
-      <c r="A462" s="38"/>
-      <c r="O462" s="39"/>
+      <c r="A462" s="39"/>
+      <c r="O462" s="40"/>
     </row>
     <row r="463" spans="1:15">
-      <c r="A463" s="38"/>
-      <c r="O463" s="39"/>
+      <c r="A463" s="39"/>
+      <c r="O463" s="40"/>
     </row>
     <row r="464" spans="1:15">
-      <c r="A464" s="38"/>
-      <c r="O464" s="39"/>
+      <c r="A464" s="39"/>
+      <c r="O464" s="40"/>
     </row>
     <row r="465" spans="1:15">
-      <c r="A465" s="38"/>
-      <c r="O465" s="39"/>
+      <c r="A465" s="39"/>
+      <c r="O465" s="40"/>
     </row>
     <row r="466" spans="1:15">
-      <c r="A466" s="38"/>
-      <c r="O466" s="39"/>
+      <c r="A466" s="39"/>
+      <c r="O466" s="40"/>
     </row>
     <row r="467" spans="1:15">
-      <c r="A467" s="38"/>
-      <c r="O467" s="39"/>
+      <c r="A467" s="39"/>
+      <c r="O467" s="40"/>
     </row>
     <row r="468" spans="1:15">
-      <c r="A468" s="38"/>
-      <c r="O468" s="39"/>
+      <c r="A468" s="39"/>
+      <c r="O468" s="40"/>
     </row>
     <row r="469" spans="1:15">
-      <c r="A469" s="38"/>
-      <c r="O469" s="39"/>
+      <c r="A469" s="39"/>
+      <c r="O469" s="40"/>
     </row>
     <row r="470" spans="1:15">
-      <c r="A470" s="38"/>
-      <c r="O470" s="39"/>
+      <c r="A470" s="39"/>
+      <c r="O470" s="40"/>
     </row>
     <row r="471" spans="1:15">
-      <c r="A471" s="38"/>
-      <c r="O471" s="39"/>
+      <c r="A471" s="39"/>
+      <c r="O471" s="40"/>
     </row>
     <row r="472" spans="1:15">
-      <c r="A472" s="38"/>
-      <c r="O472" s="39"/>
+      <c r="A472" s="39"/>
+      <c r="O472" s="40"/>
     </row>
     <row r="473" spans="1:15">
-      <c r="A473" s="38"/>
-      <c r="O473" s="39"/>
+      <c r="A473" s="39"/>
+      <c r="O473" s="40"/>
     </row>
     <row r="474" spans="1:15">
-      <c r="A474" s="38"/>
-      <c r="O474" s="39"/>
+      <c r="A474" s="39"/>
+      <c r="O474" s="40"/>
     </row>
     <row r="475" spans="1:15">
-      <c r="A475" s="38"/>
-      <c r="O475" s="39"/>
+      <c r="A475" s="39"/>
+      <c r="O475" s="40"/>
     </row>
     <row r="476" spans="1:15">
-      <c r="A476" s="38"/>
-      <c r="O476" s="39"/>
+      <c r="A476" s="39"/>
+      <c r="O476" s="40"/>
     </row>
     <row r="477" spans="1:15">
-      <c r="A477" s="38"/>
-      <c r="O477" s="39"/>
+      <c r="A477" s="39"/>
+      <c r="O477" s="40"/>
     </row>
     <row r="478" spans="1:15">
-      <c r="A478" s="38"/>
-      <c r="O478" s="39"/>
+      <c r="A478" s="39"/>
+      <c r="O478" s="40"/>
     </row>
     <row r="479" spans="1:15">
-      <c r="A479" s="38"/>
-      <c r="O479" s="39"/>
+      <c r="A479" s="39"/>
+      <c r="O479" s="40"/>
     </row>
     <row r="480" spans="1:15">
-      <c r="A480" s="38"/>
-      <c r="O480" s="39"/>
+      <c r="A480" s="39"/>
+      <c r="O480" s="40"/>
     </row>
     <row r="481" spans="1:15">
-      <c r="A481" s="38"/>
-      <c r="O481" s="39"/>
+      <c r="A481" s="39"/>
+      <c r="O481" s="40"/>
     </row>
     <row r="482" spans="1:15">
-      <c r="A482" s="38"/>
-      <c r="O482" s="39"/>
+      <c r="A482" s="39"/>
+      <c r="O482" s="40"/>
     </row>
     <row r="483" spans="1:15">
-      <c r="A483" s="38"/>
-      <c r="O483" s="39"/>
+      <c r="A483" s="39"/>
+      <c r="O483" s="40"/>
     </row>
     <row r="484" spans="1:15">
-      <c r="A484" s="38"/>
-      <c r="O484" s="39"/>
+      <c r="A484" s="39"/>
+      <c r="O484" s="40"/>
     </row>
     <row r="485" spans="1:15">
-      <c r="A485" s="38"/>
-      <c r="O485" s="39"/>
+      <c r="A485" s="39"/>
+      <c r="O485" s="40"/>
     </row>
     <row r="486" spans="1:15">
-      <c r="A486" s="38"/>
-      <c r="O486" s="39"/>
+      <c r="A486" s="39"/>
+      <c r="O486" s="40"/>
     </row>
     <row r="487" spans="1:15">
-      <c r="A487" s="38"/>
-      <c r="O487" s="39"/>
+      <c r="A487" s="39"/>
+      <c r="O487" s="40"/>
     </row>
     <row r="488" spans="1:15">
-      <c r="A488" s="38"/>
-      <c r="O488" s="39"/>
+      <c r="A488" s="39"/>
+      <c r="O488" s="40"/>
     </row>
     <row r="489" spans="1:15">
-      <c r="A489" s="38"/>
-      <c r="O489" s="39"/>
+      <c r="A489" s="39"/>
+      <c r="O489" s="40"/>
     </row>
     <row r="490" spans="1:15">
-      <c r="A490" s="38"/>
-      <c r="O490" s="39"/>
+      <c r="A490" s="39"/>
+      <c r="O490" s="40"/>
     </row>
     <row r="491" spans="1:15">
-      <c r="A491" s="38"/>
-      <c r="O491" s="39"/>
+      <c r="A491" s="39"/>
+      <c r="O491" s="40"/>
     </row>
     <row r="492" spans="1:15">
-      <c r="A492" s="38"/>
-      <c r="O492" s="39"/>
+      <c r="A492" s="39"/>
+      <c r="O492" s="40"/>
     </row>
     <row r="493" spans="1:15">
-      <c r="A493" s="38"/>
-      <c r="O493" s="39"/>
+      <c r="A493" s="39"/>
+      <c r="O493" s="40"/>
     </row>
     <row r="494" spans="1:15">
-      <c r="A494" s="40"/>
-      <c r="B494" s="41"/>
-      <c r="C494" s="42"/>
-      <c r="D494" s="43"/>
-      <c r="E494" s="44"/>
-      <c r="F494" s="41"/>
-      <c r="G494" s="45"/>
-      <c r="H494" s="46"/>
-      <c r="I494" s="45"/>
-      <c r="J494" s="45"/>
-      <c r="K494" s="41"/>
-      <c r="L494" s="41"/>
-      <c r="M494" s="47"/>
-      <c r="N494" s="41"/>
-      <c r="O494" s="48"/>
+      <c r="A494" s="41"/>
+      <c r="B494" s="42"/>
+      <c r="C494" s="43"/>
+      <c r="D494" s="44"/>
+      <c r="E494" s="45"/>
+      <c r="F494" s="42"/>
+      <c r="G494" s="46"/>
+      <c r="H494" s="47"/>
+      <c r="I494" s="46"/>
+      <c r="J494" s="46"/>
+      <c r="K494" s="42"/>
+      <c r="L494" s="42"/>
+      <c r="M494" s="48"/>
+      <c r="N494" s="42"/>
+      <c r="O494" s="49"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5">
@@ -6102,7 +6113,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -6110,13 +6121,13 @@
     </row>
     <row r="2" ht="30.75" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="2:4">
@@ -6127,7 +6138,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="2:4">
@@ -6149,15 +6160,15 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6165,7 +6176,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="4:4">

--- a/Amin需求池.xlsx
+++ b/Amin需求池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="需求单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
   <si>
     <t>编号</t>
   </si>
@@ -413,6 +413,16 @@
   </si>
   <si>
     <t>开发中</t>
+  </si>
+  <si>
+    <t>鸿鹄实验室8-11月会议室使用情况数据申请</t>
+  </si>
+  <si>
+    <t>了解鸿鹄23年8月至10月份会议室使用情况</t>
+  </si>
+  <si>
+    <t>会议室：白泽，布达拉宫，当康，凤凰，金乌，凌云1号，凌云2号，纳木措，麒麟，青龙，青鸟，玄武，重明，朱雀，天马(上海)。
+导出会议室的预约时间，会议室名称，已经预约的时间段，如：凤凰会议室  预约时间  2023-8-9 14:00   结束时间：2023-8-9  18:00</t>
   </si>
   <si>
     <t>TCL实业全球官网运营管理规范</t>
@@ -1860,10 +1870,10 @@
   <sheetPr/>
   <dimension ref="A1:P494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2491,21 +2501,47 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
+    <row r="15" s="5" customFormat="1" ht="66" spans="1:15">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="18"/>
+      <c r="G15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="22">
+        <v>45270</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="29">
+        <v>45239.45</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="O15" s="18"/>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:15">
@@ -2550,13 +2586,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="21"/>
@@ -2569,7 +2605,7 @@
         <v>45140</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O18" s="18"/>
     </row>
@@ -6113,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -6121,13 +6157,13 @@
     </row>
     <row r="2" ht="30.75" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="2:4">
@@ -6157,18 +6193,18 @@
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -6176,7 +6212,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="4:4">
